--- a/results/case2/data_case2_consq_recipe.xlsx
+++ b/results/case2/data_case2_consq_recipe.xlsx
@@ -85,130 +85,130 @@
     <t>MUD</t>
   </si>
   <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.00017432404958286291], ["'SUD manufacturing' (unit, GLO, None)", 0.01723553481791422], ["'SUD raw materials' (unit, GLO, None)", 0.001022410066095151], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003142564330995019], ["'marginal heating grid' (megajoule, DK, None)", -0.00029312803887299134], ["'transport' (ton kilometer, GLO, None)", 1.1432094570717332e-05], ["'eol SUD' (kilogram, GLO, None)", 5.7621994913692816e-05], ["'surgery use' (unit, DK, None)", 3.708647568667561e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.733723219064688e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0005216302307062668], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.5850362377385685e-05], ["'MUD raw materials' (unit, GLO, None)", 4.974384473893809e-06], ["'mechanical disinfection' (unit, DK, None)", 0.00026395614583408903], ["'H200 SU' (unit, GLO, None)", 6.74027417177785e-05], ["'autoclave' (unit, DK, None)", 0.00012427811948305154], ["'transport' (ton kilometer, GLO, None)", 4.676204668943655e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.2129610553891992e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.3003902283894298e-05], ["'eol MUD' (kilogram, GLO, None)", 2.1674002896766195e-06], ["'scalpel' (unit, GLO, None)", 6.882498100632453e-05], ["'surgery use' (unit, DK, None)", 3.708647568667561e-05]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.06719263487062578], ["'SUD manufacturing' (unit, GLO, None)", 0.8423395401469569], ["'SUD raw materials' (unit, GLO, None)", 0.1671249428568392], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.02983756056441158], ["'marginal heating grid' (megajoule, DK, None)", -0.03259080899141205], ["'transport' (ton kilometer, GLO, None)", 0.00920130260810945], ["'eol SUD' (kilogram, GLO, None)", 0.4228759520525555], ["'surgery use' (unit, DK, None)", 0.003338416857872192], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0017575516883288165]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.04454178604221832], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.01488524762311016], ["'MUD raw materials' (unit, GLO, None)", 0.0008808656327696843], ["'mechanical disinfection' (unit, DK, None)", 0.025475888421857915], ["'H200 SU' (unit, GLO, None)", 0.0972060646709274], ["'autoclave' (unit, DK, None)", 0.010992506912446855], ["'transport' (ton kilometer, GLO, None)", 0.0037637174841622222], ["'marginal heating grid' (megajoule, DK, None)", -0.0013486045968921934], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0012346755105138408], ["'eol MUD' (kilogram, GLO, None)", 0.014549819716063972], ["'scalpel' (unit, GLO, None)", 0.01584249264905101], ["'surgery use' (unit, DK, None)", 0.003338416857872192]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0018381564319052285], ["'SUD manufacturing' (unit, GLO, None)", 0.6379439843549463], ["'SUD raw materials' (unit, GLO, None)", 0.02542561160875021], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.014597308724621614], ["'marginal heating grid' (megajoule, DK, None)", -0.0082547030242471], ["'transport' (ton kilometer, GLO, None)", 0.00025509249317014573], ["'eol SUD' (kilogram, GLO, None)", 0.03522084810385333], ["'surgery use' (unit, DK, None)", 0.002499280188076354], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.025046048680375e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.02514855820142217], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0003608699502184846], ["'MUD raw materials' (unit, GLO, None)", 0.0001773544663215081], ["'mechanical disinfection' (unit, DK, None)", 0.01592645917313094], ["'H200 SU' (unit, GLO, None)", 0.00211971905681579], ["'autoclave' (unit, DK, None)", 0.004804912475659161], ["'transport' (ton kilometer, GLO, None)", 0.00010434349542822789], ["'marginal heating grid' (megajoule, DK, None)", -0.00034157883124082594], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0006040352917857834], ["'eol MUD' (kilogram, GLO, None)", 0.0007293866114543352], ["'scalpel' (unit, GLO, None)", 0.002611132608374289], ["'surgery use' (unit, DK, None)", 0.002499280188076354]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0024549095877762603], ["'SUD manufacturing' (unit, GLO, None)", 0.8601191273965278], ["'SUD raw materials' (unit, GLO, None)", 0.03525272080351417], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.018021835108396157], ["'marginal heating grid' (megajoule, DK, None)", -0.010359994661512203], ["'transport' (ton kilometer, GLO, None)", 0.00043158746928474083], ["'eol SUD' (kilogram, GLO, None)", 0.04844171323201469], ["'surgery use' (unit, DK, None)", 0.00304733508603123], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.605172230609868e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.03061538950649681], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.000484012255685712], ["'MUD raw materials' (unit, GLO, None)", 0.00126134740824985], ["'mechanical disinfection' (unit, DK, None)", 0.019365959349973035], ["'H200 SU' (unit, GLO, None)", 0.0032831004564272777], ["'autoclave' (unit, DK, None)", 0.0056790159540424864], ["'transport' (ton kilometer, GLO, None)", 0.0001765373201247272], ["'marginal heating grid' (megajoule, DK, None)", -0.0004286956002833669], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0007457418784226972], ["'eol MUD' (kilogram, GLO, None)", 0.0010396455220607961], ["'scalpel' (unit, GLO, None)", 0.003538570661091905], ["'surgery use' (unit, DK, None)", 0.00304733508603123]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.22765497350884728], ["'SUD manufacturing' (unit, GLO, None)", 141.2756881126531], ["'SUD raw materials' (unit, GLO, None)", 7.355646476855473], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.9147836270950568], ["'marginal heating grid' (megajoule, DK, None)", -0.8767677532628311], ["'transport' (ton kilometer, GLO, None)", 0.1772745985197628], ["'eol SUD' (kilogram, GLO, None)", 0.9425449675871294], ["'surgery use' (unit, DK, None)", 0.1585704030587303], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.010836985556938843]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 2.317263814166348], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.04276509116187056], ["'MUD raw materials' (unit, GLO, None)", 0.005609439940479135], ["'mechanical disinfection' (unit, DK, None)", 1.0702689270509655], ["'H200 SU' (unit, GLO, None)", 0.15674699413999335], ["'autoclave' (unit, DK, None)", 0.43996535341577003], ["'transport' (ton kilometer, GLO, None)", 0.07251272285715626], ["'marginal heating grid' (megajoule, DK, None)", -0.036280566793192214], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.03785366231113559], ["'eol MUD' (kilogram, GLO, None)", 0.034877134219228265], ["'scalpel' (unit, GLO, None)", 0.5116859211889656], ["'surgery use' (unit, DK, None)", 0.1585704030587303]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.039286400380603916], ["'SUD manufacturing' (unit, GLO, None)", 0.243308108612596], ["'SUD raw materials' (unit, GLO, None)", 0.06922828462367782], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.007355315079136639], ["'marginal heating grid' (megajoule, DK, None)", -0.00489870681405168], ["'transport' (ton kilometer, GLO, None)", 0.0029295109146596915], ["'eol SUD' (kilogram, GLO, None)", 0.003573189546626196], ["'surgery use' (unit, DK, None)", 0.0007670950820896252], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0003817396228507121]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.01121757414338274], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.009478392684151094], ["'MUD raw materials' (unit, GLO, None)", 0.0002326559959370479], ["'mechanical disinfection' (unit, DK, None)", 0.006206330919678597], ["'H200 SU' (unit, GLO, None)", 0.03443693398382418], ["'autoclave' (unit, DK, None)", 0.002845751032174806], ["'transport' (ton kilometer, GLO, None)", 0.0011982924504440546], ["'marginal heating grid' (megajoule, DK, None)", -0.00020270802513672038], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.000304362261141246], ["'eol MUD' (kilogram, GLO, None)", 0.00013301271329378025], ["'scalpel' (unit, GLO, None)", 0.004237171167852238], ["'surgery use' (unit, DK, None)", 0.0007670950820896252]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 2.0991178274320473e-05], ["'SUD manufacturing' (unit, GLO, None)", 0.00122999933319728], ["'SUD raw materials' (unit, GLO, None)", 5.755860513062121e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.202519847079527e-05], ["'marginal heating grid' (megajoule, DK, None)", -7.879500605533044e-06], ["'transport' (ton kilometer, GLO, None)", 9.220204018765613e-07], ["'eol SUD' (kilogram, GLO, None)", 9.772997875050901e-06], ["'surgery use' (unit, DK, None)", 1.458626220652313e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.42478223900292e-07]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 1.111781479085037e-05], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.698054174804182e-06], ["'MUD raw materials' (unit, GLO, None)", 8.540604213338202e-08], ["'mechanical disinfection' (unit, DK, None)", 1.4340504958504725e-05], ["'H200 SU' (unit, GLO, None)", 6.958258780399025e-06], ["'autoclave' (unit, DK, None)", -3.919647744740454e-06], ["'transport' (ton kilometer, GLO, None)", 3.771448951411135e-07], ["'marginal heating grid' (megajoule, DK, None)", -3.2605299060348e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 4.976016061671028e-07], ["'eol MUD' (kilogram, GLO, None)", 3.553843886320939e-07], ["'scalpel' (unit, GLO, None)", 1.198143062871619e-05], ["'surgery use' (unit, DK, None)", 1.458626220652313e-06]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 4.727159365980265e-06], ["'SUD manufacturing' (unit, GLO, None)", 3.177460829846986e-05], ["'SUD raw materials' (unit, GLO, None)", 5.097098925955963e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.2847268683520993e-06], ["'marginal heating grid' (megajoule, DK, None)", -7.432148373965863e-07], ["'transport' (ton kilometer, GLO, None)", 2.4977544993084835e-07], ["'eol SUD' (kilogram, GLO, None)", 2.259935353576352e-06], ["'surgery use' (unit, DK, None)", 1.286843342549796e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.6299264413099483e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 8.299604573066336e-05], ["'MUD packgaging materials' (kilogram, GLO, None)", 5.248581897211868e-07], ["'MUD raw materials' (unit, GLO, None)", 3.029168926799723e-08], ["'mechanical disinfection' (unit, DK, None)", 3.861473902575616e-05], ["'H200 SU' (unit, GLO, None)", 9.971894976246289e-07], ["'autoclave' (unit, DK, None)", 2.851107288928793e-05], ["'transport' (ton kilometer, GLO, None)", 1.0216860243143057e-07], ["'marginal heating grid' (megajoule, DK, None)", -3.075415975269701e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 5.316187959230902e-08], ["'eol MUD' (kilogram, GLO, None)", 6.397287955690134e-08], ["'scalpel' (unit, GLO, None)", 7.406041439450125e-07], ["'surgery use' (unit, DK, None)", 1.286843342549796e-07]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0020370236016016476], ["'SUD manufacturing' (unit, GLO, None)", 0.148650852556396], ["'SUD raw materials' (unit, GLO, None)", 0.01405179601617275], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004482173068572442], ["'marginal heating grid' (megajoule, DK, None)", -0.0017265612230846932], ["'transport' (ton kilometer, GLO, None)", 0.00012238156993535815], ["'eol SUD' (kilogram, GLO, None)", 0.00789317483718032], ["'surgery use' (unit, DK, None)", 0.0005170129990064538], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.574875801824773e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.004701125033872964], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00041689142254714643], ["'MUD raw materials' (unit, GLO, None)", 0.0001600139671125152], ["'mechanical disinfection' (unit, DK, None)", 0.003257620557578428], ["'H200 SU' (unit, GLO, None)", 0.0009889703835354513], ["'autoclave' (unit, DK, None)", 0.0005820472367603502], ["'transport' (ton kilometer, GLO, None)", 5.0059179023084934e-05], ["'marginal heating grid' (megajoule, DK, None)", -7.144494028612148e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0001854719091295862], ["'eol MUD' (kilogram, GLO, None)", 0.0001286426350402485], ["'scalpel' (unit, GLO, None)", 0.008696322030230737], ["'surgery use' (unit, DK, None)", 0.0005170129990064538]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.05012957157666421], ["'SUD manufacturing' (unit, GLO, None)", 15.65297737556386], ["'SUD raw materials' (unit, GLO, None)", 0.3317613424254143], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.14533510480336842], ["'marginal heating grid' (megajoule, DK, None)", -0.12634041505540436], ["'transport' (ton kilometer, GLO, None)", 0.007777795394887316], ["'eol SUD' (kilogram, GLO, None)", 0.5678474443968955], ["'surgery use' (unit, DK, None)", 0.01972150826347731], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0035338114658501553]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.2222486371227814], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.008686484460168682], ["'MUD raw materials' (unit, GLO, None)", 0.004880110399595678], ["'mechanical disinfection' (unit, DK, None)", 0.13370650829681924], ["'H200 SU' (unit, GLO, None)", 0.03265100086773485], ["'autoclave' (unit, DK, None)", 0.024632525678607197], ["'transport' (ton kilometer, GLO, None)", 0.0031814435154185724], ["'marginal heating grid' (megajoule, DK, None)", -0.005227954438378114], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.00601395326307971], ["'eol MUD' (kilogram, GLO, None)", 0.010057098994976345], ["'scalpel' (unit, GLO, None)", 0.04841575022375953], ["'surgery use' (unit, DK, None)", 0.01972150826347731]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0027176004877004366], ["'SUD manufacturing' (unit, GLO, None)", 0.06108873396627117], ["'SUD raw materials' (unit, GLO, None)", 0.002150464193902244], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.467297201033547e-05], ["'marginal heating grid' (megajoule, DK, None)", -5.303381391388077e-05], ["'transport' (ton kilometer, GLO, None)", 3.997786119551354e-05], ["'eol SUD' (kilogram, GLO, None)", -0.0002213227775975274], ["'surgery use' (unit, DK, None)", 1.608537392968994e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -8.57453848802743e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.001053918381456326], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0006141547232154402], ["'MUD raw materials' (unit, GLO, None)", -3.029014169808615e-05], ["'mechanical disinfection' (unit, DK, None)", 0.0005509266192449044], ["'H200 SU' (unit, GLO, None)", 0.0019968224805108326], ["'autoclave' (unit, DK, None)", 0.0002641256959247222], ["'transport' (ton kilometer, GLO, None)", 1.63526167510624e-05], ["'marginal heating grid' (megajoule, DK, None)", -2.194534209133358e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 3.089960710407858e-06], ["'eol MUD' (kilogram, GLO, None)", -9.351900863397057e-06], ["'scalpel' (unit, GLO, None)", -0.0001860635691002214], ["'surgery use' (unit, DK, None)", 1.608537392968994e-05]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.019062694244688285], ["'SUD manufacturing' (unit, GLO, None)", 0.1511758424705208], ["'SUD raw materials' (unit, GLO, None)", 0.001500136603377085], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.1470620058358807], ["'marginal heating grid' (megajoule, DK, None)", -0.13879832410576037], ["'transport' (ton kilometer, GLO, None)", 0.0003808730176934247], ["'eol SUD' (kilogram, GLO, None)", 0.000810126192990197], ["'surgery use' (unit, DK, None)", 0.01315159688228937], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00295180252074274]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.147671296726787], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0006409587739395506], ["'MUD raw materials' (unit, GLO, None)", 5.715679770863124e-05], ["'mechanical disinfection' (unit, DK, None)", 0.08821417078053534], ["'H200 SU' (unit, GLO, None)", -0.0269965914193887], ["'autoclave' (unit, DK, None)", 0.03791569169716939], ["'transport' (ton kilometer, GLO, None)", 0.00015579298899212103], ["'marginal heating grid' (megajoule, DK, None)", -0.005743461537861349], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.00608541226889626], ["'eol MUD' (kilogram, GLO, None)", 2.9114548246692534e-05], ["'scalpel' (unit, GLO, None)", 0.001309763712994054], ["'surgery use' (unit, DK, None)", 0.01315159688228937]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 9.701024263154826e-05], ["'SUD manufacturing' (unit, GLO, None)", -0.04907182685086764], ["'SUD raw materials' (unit, GLO, None)", 0.006047829516795218], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00038763119370091245], ["'marginal heating grid' (megajoule, DK, None)", -1.2224996550647033e-05], ["'transport' (ton kilometer, GLO, None)", 3.981534365572974e-05], ["'eol SUD' (kilogram, GLO, None)", -2.8050942093858912e-05], ["'surgery use' (unit, DK, None)", 2.294984495309616e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.978508091938936e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", -5.378267701436701e-05], ["'MUD packgaging materials' (kilogram, GLO, None)", 1.7809679820548784e-05], ["'MUD raw materials' (unit, GLO, None)", 0.0001886544142667898], ["'mechanical disinfection' (unit, DK, None)", 6.447754535118912e-05], ["'H200 SU' (unit, GLO, None)", 4.3684573445245726e-05], ["'autoclave' (unit, DK, None)", 6.992134180550745e-05], ["'transport' (ton kilometer, GLO, None)", 1.6286140282238492e-05], ["'marginal heating grid' (megajoule, DK, None)", -5.058692022507994e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.6040143125661786e-05], ["'eol MUD' (kilogram, GLO, None)", 2.059380206651716e-06], ["'scalpel' (unit, GLO, None)", 0.001005514545091814], ["'surgery use' (unit, DK, None)", 2.294984495309616e-06]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 1.9006803649131765e-08], ["'SUD manufacturing' (unit, GLO, None)", 6.540543857166419e-07], ["'SUD raw materials' (unit, GLO, None)", 6.892006735589858e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.4119924430463943e-07], ["'marginal heating grid' (megajoule, DK, None)", -1.0684446683190938e-07], ["'transport' (ton kilometer, GLO, None)", 4.101500207112692e-09], ["'eol SUD' (kilogram, GLO, None)", 8.63621368693826e-08], ["'surgery use' (unit, DK, None)", 1.286921467228347e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.4226339016883034e-10]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 1.050434855330733e-09], ["'MUD packgaging materials' (kilogram, GLO, None)", 2.425351751864013e-09], ["'MUD raw materials' (unit, GLO, None)", 2.604943850789606e-09], ["'mechanical disinfection' (unit, DK, None)", 6.030513957125462e-08], ["'H200 SU' (unit, GLO, None)", -1.1669647531302073e-08], ["'autoclave' (unit, DK, None)", -3.938877398176469e-08], ["'transport' (ton kilometer, GLO, None)", 1.6776850733286294e-09], ["'marginal heating grid' (megajoule, DK, None)", -4.421213942862775e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 5.842811736222688e-09], ["'eol MUD' (kilogram, GLO, None)", 2.1447450792918747e-09], ["'scalpel' (unit, GLO, None)", 3.926309181799446e-09], ["'surgery use' (unit, DK, None)", 1.286921467228347e-08]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.00010237506562187054], ["'SUD manufacturing' (unit, GLO, None)", 0.005613009697945993], ["'SUD raw materials' (unit, GLO, None)", 0.0004143913475574357], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001108183466616815], ["'marginal heating grid' (megajoule, DK, None)", -9.44038929192528e-05], ["'transport' (ton kilometer, GLO, None)", 7.046592379597974e-06], ["'eol SUD' (kilogram, GLO, None)", 2.5581642279210825e-05], ["'surgery use' (unit, DK, None)", 1.293174754731441e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.148407866485655e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0001966470700591215], ["'MUD packgaging materials' (kilogram, GLO, None)", 1.9999291498378095e-05], ["'MUD raw materials' (unit, GLO, None)", 2.893241396646329e-06], ["'mechanical disinfection' (unit, DK, None)", 9.737321248941866e-05], ["'H200 SU' (unit, GLO, None)", 4.466958115719863e-05], ["'autoclave' (unit, DK, None)", 5.1557459678759454e-05], ["'transport' (ton kilometer, GLO, None)", 2.88235090969434e-06], ["'marginal heating grid' (megajoule, DK, None)", -3.906424169739723e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 4.58565298739628e-06], ["'eol MUD' (kilogram, GLO, None)", 1.011166863575971e-06], ["'scalpel' (unit, GLO, None)", 5.90707743283763e-05], ["'surgery use' (unit, DK, None)", 1.293174754731441e-05]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.00016660384163235114], ["'SUD manufacturing' (unit, GLO, None)", 0.00464551304481565], ["'SUD raw materials' (unit, GLO, None)", 0.0003686160854540636], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00036692970714018283], ["'marginal heating grid' (megajoule, DK, None)", -0.0003160535722861704], ["'transport' (ton kilometer, GLO, None)", 1.4617259233852813e-05], ["'eol SUD' (kilogram, GLO, None)", 9.40405989935806e-05], ["'surgery use' (unit, DK, None)", 3.492261037109429e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.190454302771907e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0003870013842249026], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.442987121450453e-05], ["'MUD raw materials' (unit, GLO, None)", 8.670297068761053e-06], ["'mechanical disinfection' (unit, DK, None)", 0.00023422381429291815], ["'H200 SU' (unit, GLO, None)", 5.76904095829647e-05], ["'autoclave' (unit, DK, None)", 8.857497363231046e-05], ["'transport' (ton kilometer, GLO, None)", 5.979070191702699e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.3078266960530006e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.5183517516722086e-05], ["'eol MUD' (kilogram, GLO, None)", 3.0606519911062236e-06], ["'scalpel' (unit, GLO, None)", 3.990717517136661e-05], ["'surgery use' (unit, DK, None)", 3.492261037109429e-05]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.00018211416706189336], ["'SUD manufacturing' (unit, GLO, None)", 0.004776248445496909], ["'SUD raw materials' (unit, GLO, None)", 0.0003943382353830242], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003749870713806231], ["'marginal heating grid' (megajoule, DK, None)", -0.0003228899987700596], ["'transport' (ton kilometer, GLO, None)", 1.6594221729306452e-05], ["'eol SUD' (kilogram, GLO, None)", 9.556355515341452e-05], ["'surgery use' (unit, DK, None)", 3.572138048556811e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.350437077111058e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0003957652482087541], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.805242101469399e-05], ["'MUD raw materials' (unit, GLO, None)", 8.869001415159467e-06], ["'mechanical disinfection' (unit, DK, None)", 0.00023968692247428112], ["'H200 SU' (unit, GLO, None)", 6.474469772268875e-05], ["'autoclave' (unit, DK, None)", 9.043618676761476e-05], ["'transport' (ton kilometer, GLO, None)", 6.7877305115050346e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.3361157642529277e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.5516930507555768e-05], ["'eol MUD' (kilogram, GLO, None)", 3.1205947738741315e-06], ["'scalpel' (unit, GLO, None)", 4.250385922867566e-05], ["'surgery use' (unit, DK, None)", 3.572138048556811e-05]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0012784805804998466], ["'SUD manufacturing' (unit, GLO, None)", 0.006116465823724678], ["'SUD raw materials' (unit, GLO, None)", 0.001892874627284955], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00032641395092789134], ["'marginal heating grid' (megajoule, DK, None)", -0.00024773106868902577], ["'transport' (ton kilometer, GLO, None)", 1.3643310376004106e-05], ["'eol SUD' (kilogram, GLO, None)", 0.00043193508216965014], ["'surgery use' (unit, DK, None)", 3.101371746142872e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -9.792701473354166e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0004537308504203414], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00023172728446190348], ["'MUD raw materials' (unit, GLO, None)", 3.276360617559955e-07], ["'mechanical disinfection' (unit, DK, None)", 0.00025148700938845865], ["'H200 SU' (unit, GLO, None)", 0.00038904049271861477], ["'autoclave' (unit, DK, None)", 0.00012475756729941718], ["'transport' (ton kilometer, GLO, None)", 5.580684386878248e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.0251088216775216e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.3506979252902668e-05], ["'eol MUD' (kilogram, GLO, None)", 1.3247770214256721e-05], ["'scalpel' (unit, GLO, None)", 8.917667619550196e-05], ["'surgery use' (unit, DK, None)", 3.101371746142872e-05]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 4.35888625262519e-10], ["'SUD manufacturing' (unit, GLO, None)", 1.094005271080916e-08], ["'SUD raw materials' (unit, GLO, None)", 8.929309321015938e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5330395377705505e-09], ["'marginal heating grid' (megajoule, DK, None)", -1.4478760802042353e-09], ["'transport' (ton kilometer, GLO, None)", 3.657523748164991e-11], ["'eol SUD' (kilogram, GLO, None)", 1.2626265616314096e-09], ["'surgery use' (unit, DK, None)", 1.432707789572502e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.358493650238109e-11]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 1.650450362829553e-09], ["'MUD packgaging materials' (kilogram, GLO, None)", 6.315359306132617e-11], ["'MUD raw materials' (unit, GLO, None)", 5.54968831659287e-12], ["'mechanical disinfection' (unit, DK, None)", 9.753612260778924e-10], ["'H200 SU' (unit, GLO, None)", 6.37737567914909e-11], ["'autoclave' (unit, DK, None)", 4.113660982892872e-10], ["'transport' (ton kilometer, GLO, None)", 1.4960801384333054e-11], ["'marginal heating grid' (megajoule, DK, None)", -5.99129754038389e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 6.343703500320268e-11], ["'eol MUD' (kilogram, GLO, None)", 4.3112602916447866e-11], ["'scalpel' (unit, GLO, None)", 9.210636727057058e-11], ["'surgery use' (unit, DK, None)", 1.432707789572502e-10]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 1.4791702608566788e-07], ["'SUD manufacturing' (unit, GLO, None)", 8.385986174049962e-06], ["'SUD raw materials' (unit, GLO, None)", 5.423183344659127e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.465275411709376e-07], ["'marginal heating grid' (megajoule, DK, None)", -1.2504570426592457e-07], ["'transport' (ton kilometer, GLO, None)", 1.5194347653106734e-08], ["'eol SUD' (kilogram, GLO, None)", 5.653491242498502e-07], ["'surgery use' (unit, DK, None)", 1.754646709328267e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.388563463894588e-09]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 2.325379497889426e-07], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.02992019840597e-08], ["'MUD raw materials' (unit, GLO, None)", 4.291447126823519e-09], ["'mechanical disinfection' (unit, DK, None)", 1.2694775445939844e-07], ["'H200 SU' (unit, GLO, None)", 1.2992869857642666e-07], ["'autoclave' (unit, DK, None)", 5.048131908368958e-08], ["'transport' (ton kilometer, GLO, None)", 6.215123483933221e-09], ["'marginal heating grid' (megajoule, DK, None)", -5.1743794282334295e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 6.06329617024216e-09], ["'eol MUD' (kilogram, GLO, None)", 1.6892382521192e-08], ["'scalpel' (unit, GLO, None)", 9.19823558466813e-08], ["'surgery use' (unit, DK, None)", 1.754646709328267e-08]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.014972774331559451], ["'SUD manufacturing' (unit, GLO, None)", 0.05016967688746018], ["'SUD raw materials' (unit, GLO, None)", 0.02615081602738607], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0024436001405526266], ["'marginal heating grid' (megajoule, DK, None)", -0.0017319402628868464], ["'transport' (ton kilometer, GLO, None)", 0.0012339467107755396], ["'eol SUD' (kilogram, GLO, None)", 0.0012880153846745877], ["'surgery use' (unit, DK, None)", 0.0002378859951207407], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0001268963378333261]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.002630874099645759], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0036505270436078814], ["'MUD raw materials' (unit, GLO, None)", 0.000124165036216885], ["'mechanical disinfection' (unit, DK, None)", 0.0017683182074926674], ["'H200 SU' (unit, GLO, None)", 0.013733614874553246], ["'autoclave' (unit, DK, None)", 0.00048793602601169807], ["'transport' (ton kilometer, GLO, None)", 0.000504735797492111], ["'marginal heating grid' (megajoule, DK, None)", -7.166752444492408e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0001011159489568683], ["'eol MUD' (kilogram, GLO, None)", 4.4802578887476545e-05], ["'scalpel' (unit, GLO, None)", 0.001162499706500579], ["'surgery use' (unit, DK, None)", 0.0002378859951207407]]</t>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.00017414927517537144], ["'SUD manufacturing' (unit, GLO, None)", 0.017235534817914216], ["'SUD raw materials' (unit, GLO, None)", 0.001022410066095151], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00031425643309950196], ["'marginal heating grid' (megajoule, DK, None)", -0.00029312803887299134], ["'transport' (ton kilometer, GLO, None)", 1.1432094570717334e-05], ["'eol SUD' (kilogram, GLO, None)", 5.7621994913692816e-05], ["'surgery use' (unit, DK, None)", 3.708647568667561e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.733723219064687e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0005216302307062668], ["'packgaging materials' (kilogram, GLO, None)", 1.299552588830423e-07], ["'MUD raw materials' (unit, GLO, None)", 4.974384473893809e-06], ["'mechanical disinfection' (unit, DK, None)", 0.00026395614583408903], ["'H200 SU' (unit, GLO, None)", 6.740274171777851e-05], ["'autoclave' (unit, DK, None)", 0.00012427811948305154], ["'transport' (ton kilometer, GLO, None)", 4.6762046689436555e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.2129610553891992e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.30039022838943e-05], ["'eol MUD' (kilogram, GLO, None)", 2.167400289676619e-06], ["'scalpel' (unit, GLO, None)", 6.882498100632453e-05], ["'surgery use' (unit, DK, None)", 3.708647568667561e-05]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.06712526864677193], ["'SUD manufacturing' (unit, GLO, None)", 0.8423395401469569], ["'SUD raw materials' (unit, GLO, None)", 0.16712494285683918], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.02983756056441158], ["'marginal heating grid' (megajoule, DK, None)", -0.03259080899141205], ["'transport' (ton kilometer, GLO, None)", 0.009201302608109448], ["'eol SUD' (kilogram, GLO, None)", 0.42287595205255546], ["'surgery use' (unit, DK, None)", 0.003338416857872192], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0017575516883288158]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.04454178604221832], ["'packgaging materials' (kilogram, GLO, None)", 5.009082958169368e-05], ["'MUD raw materials' (unit, GLO, None)", 0.0008808656327696843], ["'mechanical disinfection' (unit, DK, None)", 0.025475888421857915], ["'H200 SU' (unit, GLO, None)", 0.0972060646709274], ["'autoclave' (unit, DK, None)", 0.010992506912446855], ["'transport' (ton kilometer, GLO, None)", 0.0037637174841622214], ["'marginal heating grid' (megajoule, DK, None)", -0.0013486045968921934], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0012346755105138408], ["'eol MUD' (kilogram, GLO, None)", 0.014549819716063976], ["'scalpel' (unit, GLO, None)", 0.01584249264905101], ["'surgery use' (unit, DK, None)", 0.003338416857872192]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.0018363135266834208], ["'SUD manufacturing' (unit, GLO, None)", 0.6379439843549463], ["'SUD raw materials' (unit, GLO, None)", 0.02542561160875021], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.01459730872462161], ["'marginal heating grid' (megajoule, DK, None)", -0.008254703024247098], ["'transport' (ton kilometer, GLO, None)", 0.0002550924931701458], ["'eol SUD' (kilogram, GLO, None)", 0.03522084810385333], ["'surgery use' (unit, DK, None)", 0.002499280188076354], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.025046048680374e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.02514855820142217], ["'packgaging materials' (kilogram, GLO, None)", 1.370310611458262e-06], ["'MUD raw materials' (unit, GLO, None)", 0.00017735446632150806], ["'mechanical disinfection' (unit, DK, None)", 0.01592645917313094], ["'H200 SU' (unit, GLO, None)", 0.00211971905681579], ["'autoclave' (unit, DK, None)", 0.004804912475659161], ["'transport' (ton kilometer, GLO, None)", 0.00010434349542822792], ["'marginal heating grid' (megajoule, DK, None)", -0.00034157883124082583], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0006040352917857833], ["'eol MUD' (kilogram, GLO, None)", 0.0007293866114543356], ["'scalpel' (unit, GLO, None)", 0.0026111326083742893], ["'surgery use' (unit, DK, None)", 0.002499280188076354]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.002452448336046075], ["'SUD manufacturing' (unit, GLO, None)", 0.8601191273965278], ["'SUD raw materials' (unit, GLO, None)", 0.035252720803514166], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.018021835108396157], ["'marginal heating grid' (megajoule, DK, None)", -0.010359994661512203], ["'transport' (ton kilometer, GLO, None)", 0.00043158746928474083], ["'eol SUD' (kilogram, GLO, None)", 0.04844171323201469], ["'surgery use' (unit, DK, None)", 0.0030473350860312303], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.605172230609868e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.030615389506496813], ["'packgaging materials' (kilogram, GLO, None)", 1.8300883428151438e-06], ["'MUD raw materials' (unit, GLO, None)", 0.0012613474082498503], ["'mechanical disinfection' (unit, DK, None)", 0.019365959349973035], ["'H200 SU' (unit, GLO, None)", 0.0032831004564272772], ["'autoclave' (unit, DK, None)", 0.005679015954042487], ["'transport' (ton kilometer, GLO, None)", 0.0001765373201247272], ["'marginal heating grid' (megajoule, DK, None)", -0.0004286956002833669], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0007457418784226972], ["'eol MUD' (kilogram, GLO, None)", 0.0010396455220607961], ["'scalpel' (unit, GLO, None)", 0.0035385706610919047], ["'surgery use' (unit, DK, None)", 0.0030473350860312303]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.22742673039951894], ["'SUD manufacturing' (unit, GLO, None)", 141.2756881126531], ["'SUD raw materials' (unit, GLO, None)", 7.355646476855473], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.9147836270950565], ["'marginal heating grid' (megajoule, DK, None)", -0.8767677532628309], ["'transport' (ton kilometer, GLO, None)", 0.1772745985197628], ["'eol SUD' (kilogram, GLO, None)", 0.9425449675871294], ["'surgery use' (unit, DK, None)", 0.1585704030587303], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.010836985556938843]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 2.3172638141663477], ["'packgaging materials' (kilogram, GLO, None)", 0.00016971244695810898], ["'MUD raw materials' (unit, GLO, None)", 0.0056094399404791355], ["'mechanical disinfection' (unit, DK, None)", 1.0702689270509655], ["'H200 SU' (unit, GLO, None)", 0.15674699413999335], ["'autoclave' (unit, DK, None)", 0.43996535341577003], ["'transport' (ton kilometer, GLO, None)", 0.07251272285715626], ["'marginal heating grid' (megajoule, DK, None)", -0.03628056679319221], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.03785366231113558], ["'eol MUD' (kilogram, GLO, None)", 0.034877134219228265], ["'scalpel' (unit, GLO, None)", 0.5116859211889656], ["'surgery use' (unit, DK, None)", 0.1585704030587303]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.03924701248567248], ["'SUD manufacturing' (unit, GLO, None)", 0.24330810861259597], ["'SUD raw materials' (unit, GLO, None)", 0.06922828462367782], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.007355315079136639], ["'marginal heating grid' (megajoule, DK, None)", -0.0048987068140516786], ["'transport' (ton kilometer, GLO, None)", 0.0029295109146596915], ["'eol SUD' (kilogram, GLO, None)", 0.003573189546626196], ["'surgery use' (unit, DK, None)", 0.0007670950820896252], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0003817396228507122]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.011217574143382744], ["'packgaging materials' (kilogram, GLO, None)", 2.928726325633805e-05], ["'MUD raw materials' (unit, GLO, None)", 0.00023265599593704793], ["'mechanical disinfection' (unit, DK, None)", 0.006206330919678598], ["'H200 SU' (unit, GLO, None)", 0.034436933983824164], ["'autoclave' (unit, DK, None)", 0.0028457510321748055], ["'transport' (ton kilometer, GLO, None)", 0.0011982924504440548], ["'marginal heating grid' (megajoule, DK, None)", -0.0002027080251367203], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.000304362261141246], ["'eol MUD' (kilogram, GLO, None)", 0.00013301271329378022], ["'scalpel' (unit, GLO, None)", 0.004237171167852238], ["'surgery use' (unit, DK, None)", 0.0007670950820896252]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 2.0970132866333327e-05], ["'SUD manufacturing' (unit, GLO, None)", 0.0012299993331972795], ["'SUD raw materials' (unit, GLO, None)", 5.755860513062121e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.2025198470795267e-05], ["'marginal heating grid' (megajoule, DK, None)", -7.879500605533044e-06], ["'transport' (ton kilometer, GLO, None)", 9.220204018765612e-07], ["'eol SUD' (kilogram, GLO, None)", 9.7729978750509e-06], ["'surgery use' (unit, DK, None)", 1.458626220652313e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.42478223900292e-07]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 1.1117814790850369e-05], ["'packgaging materials' (kilogram, GLO, None)", 1.5648523616947803e-08], ["'MUD raw materials' (unit, GLO, None)", 8.540604213338202e-08], ["'mechanical disinfection' (unit, DK, None)", 1.4340504958504725e-05], ["'H200 SU' (unit, GLO, None)", 6.958258780399026e-06], ["'autoclave' (unit, DK, None)", -3.919647744740454e-06], ["'transport' (ton kilometer, GLO, None)", 3.771448951411134e-07], ["'marginal heating grid' (megajoule, DK, None)", -3.2605299060348e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 4.976016061671027e-07], ["'eol MUD' (kilogram, GLO, None)", 3.553843886320939e-07], ["'scalpel' (unit, GLO, None)", 1.198143062871619e-05], ["'surgery use' (unit, DK, None)", 1.458626220652313e-06]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 4.722419994222415e-06], ["'SUD manufacturing' (unit, GLO, None)", 3.177460829846986e-05], ["'SUD raw materials' (unit, GLO, None)", 5.097098925955963e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.2847268683520995e-06], ["'marginal heating grid' (megajoule, DK, None)", -7.432148373965861e-07], ["'transport' (ton kilometer, GLO, None)", 2.4977544993084835e-07], ["'eol SUD' (kilogram, GLO, None)", 2.2599353535763525e-06], ["'surgery use' (unit, DK, None)", 1.2868433425497964e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.629926441309948e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 8.299604573066336e-05], ["'packgaging materials' (kilogram, GLO, None)", 3.524007276433501e-09], ["'MUD raw materials' (unit, GLO, None)", 3.029168926799723e-08], ["'mechanical disinfection' (unit, DK, None)", 3.861473902575615e-05], ["'H200 SU' (unit, GLO, None)", 9.971894976246286e-07], ["'autoclave' (unit, DK, None)", 2.8511072889287927e-05], ["'transport' (ton kilometer, GLO, None)", 1.0216860243143057e-07], ["'marginal heating grid' (megajoule, DK, None)", -3.0754159752697e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 5.3161879592309025e-08], ["'eol MUD' (kilogram, GLO, None)", 6.397287955690134e-08], ["'scalpel' (unit, GLO, None)", 7.406041439450125e-07], ["'surgery use' (unit, DK, None)", 1.2868433425497964e-07]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.002034981315446249], ["'SUD manufacturing' (unit, GLO, None)", 0.148650852556396], ["'SUD raw materials' (unit, GLO, None)", 0.014051796016172752], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004482173068572443], ["'marginal heating grid' (megajoule, DK, None)", -0.001726561223084693], ["'transport' (ton kilometer, GLO, None)", 0.00012238156993535815], ["'eol SUD' (kilogram, GLO, None)", 0.00789317483718032], ["'surgery use' (unit, DK, None)", 0.0005170129990064538], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.574875801824773e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.004701125033872964], ["'packgaging materials' (kilogram, GLO, None)", 1.518562298951051e-06], ["'MUD raw materials' (unit, GLO, None)", 0.00016001396711251523], ["'mechanical disinfection' (unit, DK, None)", 0.0032576205575784276], ["'H200 SU' (unit, GLO, None)", 0.0009889703835354513], ["'autoclave' (unit, DK, None)", 0.0005820472367603503], ["'transport' (ton kilometer, GLO, None)", 5.0059179023084934e-05], ["'marginal heating grid' (megajoule, DK, None)", -7.144494028612147e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.00018547190912958622], ["'eol MUD' (kilogram, GLO, None)", 0.0001286426350402485], ["'scalpel' (unit, GLO, None)", 0.008696322030230737], ["'surgery use' (unit, DK, None)", 0.0005170129990064538]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.05007931249771854], ["'SUD manufacturing' (unit, GLO, None)", 15.652977375563857], ["'SUD raw materials' (unit, GLO, None)", 0.33176134242541433], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.1453351048033684], ["'marginal heating grid' (megajoule, DK, None)", -0.12634041505540436], ["'transport' (ton kilometer, GLO, None)", 0.007777795394887315], ["'eol SUD' (kilogram, GLO, None)", 0.5678474443968955], ["'surgery use' (unit, DK, None)", 0.019721508263477308], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.003533811465850156]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.22224863712278137], ["'packgaging materials' (kilogram, GLO, None)", 3.73706408698632e-05], ["'MUD raw materials' (unit, GLO, None)", 0.004880110399595678], ["'mechanical disinfection' (unit, DK, None)", 0.13370650829681927], ["'H200 SU' (unit, GLO, None)", 0.03265100086773484], ["'autoclave' (unit, DK, None)", 0.0246325256786072], ["'transport' (ton kilometer, GLO, None)", 0.003181443515418572], ["'marginal heating grid' (megajoule, DK, None)", -0.005227954438378114], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.006013953263079709], ["'eol MUD' (kilogram, GLO, None)", 0.010057098994976343], ["'scalpel' (unit, GLO, None)", 0.04841575022375953], ["'surgery use' (unit, DK, None)", 0.019721508263477308]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.0027148758664208546], ["'SUD manufacturing' (unit, GLO, None)", 0.061088733966271166], ["'SUD raw materials' (unit, GLO, None)", 0.002150464193902244], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.467297201033547e-05], ["'marginal heating grid' (megajoule, DK, None)", -5.303381391388077e-05], ["'transport' (ton kilometer, GLO, None)", 3.997786119551354e-05], ["'eol SUD' (kilogram, GLO, None)", -0.0002213227775975274], ["'surgery use' (unit, DK, None)", 1.608537392968994e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -8.57453848802743e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0010539183814563258], ["'packgaging materials' (kilogram, GLO, None)", 2.0259194056406923e-06], ["'MUD raw materials' (unit, GLO, None)", -3.0290141698086153e-05], ["'mechanical disinfection' (unit, DK, None)", 0.0005509266192449044], ["'H200 SU' (unit, GLO, None)", 0.0019968224805108326], ["'autoclave' (unit, DK, None)", 0.0002641256959247222], ["'transport' (ton kilometer, GLO, None)", 1.63526167510624e-05], ["'marginal heating grid' (megajoule, DK, None)", -2.194534209133358e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 3.089960710407858e-06], ["'eol MUD' (kilogram, GLO, None)", -9.351900863397056e-06], ["'scalpel' (unit, GLO, None)", -0.0001860635691002214], ["'surgery use' (unit, DK, None)", 1.608537392968994e-05]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.019043582302877737], ["'SUD manufacturing' (unit, GLO, None)", 0.15117584247052082], ["'SUD raw materials' (unit, GLO, None)", 0.001500136603377085], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.14706200583588072], ["'marginal heating grid' (megajoule, DK, None)", -0.13879832410576037], ["'transport' (ton kilometer, GLO, None)", 0.0003808730176934247], ["'eol SUD' (kilogram, GLO, None)", 0.000810126192990197], ["'surgery use' (unit, DK, None)", 0.013151596882289368], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0029518025207427396]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.14767129672678697], ["'packgaging materials' (kilogram, GLO, None)", 1.4210875501714362e-05], ["'MUD raw materials' (unit, GLO, None)", 5.715679770863124e-05], ["'mechanical disinfection' (unit, DK, None)", 0.08821417078053534], ["'H200 SU' (unit, GLO, None)", -0.02699659141938871], ["'autoclave' (unit, DK, None)", 0.03791569169716939], ["'transport' (ton kilometer, GLO, None)", 0.00015579298899212103], ["'marginal heating grid' (megajoule, DK, None)", -0.005743461537861349], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.006085412268896261], ["'eol MUD' (kilogram, GLO, None)", 2.911454824669253e-05], ["'scalpel' (unit, GLO, None)", 0.0013097637129940542], ["'surgery use' (unit, DK, None)", 0.013151596882289368]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 9.691298176755901e-05], ["'SUD manufacturing' (unit, GLO, None)", -0.04907182685086764], ["'SUD raw materials' (unit, GLO, None)", 0.006047829516795218], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00038763119370091245], ["'marginal heating grid' (megajoule, DK, None)", -1.2224996550647032e-05], ["'transport' (ton kilometer, GLO, None)", 3.981534365572974e-05], ["'eol SUD' (kilogram, GLO, None)", -2.8050942093858915e-05], ["'surgery use' (unit, DK, None)", 2.294984495309616e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.9785080919389365e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", -5.378267701436701e-05], ["'packgaging materials' (kilogram, GLO, None)", 7.23192882775306e-08], ["'MUD raw materials' (unit, GLO, None)", 0.0001886544142667898], ["'mechanical disinfection' (unit, DK, None)", 6.447754535118912e-05], ["'H200 SU' (unit, GLO, None)", 4.368457344524572e-05], ["'autoclave' (unit, DK, None)", 6.992134180550745e-05], ["'transport' (ton kilometer, GLO, None)", 1.6286140282238492e-05], ["'marginal heating grid' (megajoule, DK, None)", -5.058692022507993e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.6040143125661786e-05], ["'eol MUD' (kilogram, GLO, None)", 2.059380206651716e-06], ["'scalpel' (unit, GLO, None)", 0.0010055145450918145], ["'surgery use' (unit, DK, None)", 2.294984495309616e-06]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 1.8987747742307474e-08], ["'SUD manufacturing' (unit, GLO, None)", 6.540543857166419e-07], ["'SUD raw materials' (unit, GLO, None)", 6.892006735589858e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.4119924430463945e-07], ["'marginal heating grid' (megajoule, DK, None)", -1.0684446683190937e-07], ["'transport' (ton kilometer, GLO, None)", 4.101500207112692e-09], ["'eol SUD' (kilogram, GLO, None)", 8.636213686938262e-08], ["'surgery use' (unit, DK, None)", 1.2869214672283466e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.422633901688303e-10]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 1.0504348553307332e-09], ["'packgaging materials' (kilogram, GLO, None)", 1.4169210127188844e-11], ["'MUD raw materials' (unit, GLO, None)", 2.604943850789606e-09], ["'mechanical disinfection' (unit, DK, None)", 6.030513957125463e-08], ["'H200 SU' (unit, GLO, None)", -1.1669647531302073e-08], ["'autoclave' (unit, DK, None)", -3.938877398176468e-08], ["'transport' (ton kilometer, GLO, None)", 1.6776850733286294e-09], ["'marginal heating grid' (megajoule, DK, None)", -4.421213942862775e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 5.842811736222689e-09], ["'eol MUD' (kilogram, GLO, None)", 2.1447450792918743e-09], ["'scalpel' (unit, GLO, None)", 3.926309181799446e-09], ["'surgery use' (unit, DK, None)", 1.2869214672283466e-08]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.00010227242607512539], ["'SUD manufacturing' (unit, GLO, None)", 0.005613009697945993], ["'SUD raw materials' (unit, GLO, None)", 0.0004143913475574357], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00011081834666168152], ["'marginal heating grid' (megajoule, DK, None)", -9.440389291925282e-05], ["'transport' (ton kilometer, GLO, None)", 7.046592379597976e-06], ["'eol SUD' (kilogram, GLO, None)", 2.558164227921082e-05], ["'surgery use' (unit, DK, None)", 1.2931747547314407e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.148407866485655e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.00019664707005912153], ["'packgaging materials' (kilogram, GLO, None)", 7.631866164131669e-08], ["'MUD raw materials' (unit, GLO, None)", 2.893241396646329e-06], ["'mechanical disinfection' (unit, DK, None)", 9.737321248941866e-05], ["'H200 SU' (unit, GLO, None)", 4.4669581157198634e-05], ["'autoclave' (unit, DK, None)", 5.155745967875946e-05], ["'transport' (ton kilometer, GLO, None)", 2.8823509096943403e-06], ["'marginal heating grid' (megajoule, DK, None)", -3.9064241697397235e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 4.585652987396281e-06], ["'eol MUD' (kilogram, GLO, None)", 1.0111668635759709e-06], ["'scalpel' (unit, GLO, None)", 5.9070774328376296e-05], ["'surgery use' (unit, DK, None)", 1.2931747547314407e-05]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.00016643680737760098], ["'SUD manufacturing' (unit, GLO, None)", 0.00464551304481565], ["'SUD raw materials' (unit, GLO, None)", 0.00036861608545406363], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003669297071401828], ["'marginal heating grid' (megajoule, DK, None)", -0.0003160535722861704], ["'transport' (ton kilometer, GLO, None)", 1.4617259233852813e-05], ["'eol SUD' (kilogram, GLO, None)", 9.40405989935806e-05], ["'surgery use' (unit, DK, None)", 3.492261037109429e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.190454302771907e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.00038700138422490264], ["'packgaging materials' (kilogram, GLO, None)", 1.2419999089081508e-07], ["'MUD raw materials' (unit, GLO, None)", 8.670297068761053e-06], ["'mechanical disinfection' (unit, DK, None)", 0.00023422381429291815], ["'H200 SU' (unit, GLO, None)", 5.769040958296471e-05], ["'autoclave' (unit, DK, None)", 8.857497363231046e-05], ["'transport' (ton kilometer, GLO, None)", 5.979070191702699e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.3078266960530006e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.5183517516722085e-05], ["'eol MUD' (kilogram, GLO, None)", 3.0606519911062232e-06], ["'scalpel' (unit, GLO, None)", 3.990717517136661e-05], ["'surgery use' (unit, DK, None)", 3.492261037109429e-05]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.00018193158241152404], ["'SUD manufacturing' (unit, GLO, None)", 0.004776248445496909], ["'SUD raw materials' (unit, GLO, None)", 0.00039433823538302415], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00037498707138062306], ["'marginal heating grid' (megajoule, DK, None)", -0.0003228899987700596], ["'transport' (ton kilometer, GLO, None)", 1.6594221729306455e-05], ["'eol SUD' (kilogram, GLO, None)", 9.556355515341452e-05], ["'surgery use' (unit, DK, None)", 3.5721380485568114e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.350437077111058e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.00039576524820875413], ["'packgaging materials' (kilogram, GLO, None)", 1.357626430973213e-07], ["'MUD raw materials' (unit, GLO, None)", 8.869001415159467e-06], ["'mechanical disinfection' (unit, DK, None)", 0.00023968692247428112], ["'H200 SU' (unit, GLO, None)", 6.474469772268875e-05], ["'autoclave' (unit, DK, None)", 9.043618676761476e-05], ["'transport' (ton kilometer, GLO, None)", 6.787730511505035e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.3361157642529277e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.5516930507555765e-05], ["'eol MUD' (kilogram, GLO, None)", 3.120594773874132e-06], ["'scalpel' (unit, GLO, None)", 4.250385922867566e-05], ["'surgery use' (unit, DK, None)", 3.5721380485568114e-05]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.0012771987970254441], ["'SUD manufacturing' (unit, GLO, None)", 0.0061164658237246785], ["'SUD raw materials' (unit, GLO, None)", 0.0018928746272849554], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003264139509278913], ["'marginal heating grid' (megajoule, DK, None)", -0.00024773106868902577], ["'transport' (ton kilometer, GLO, None)", 1.3643310376004106e-05], ["'eol SUD' (kilogram, GLO, None)", 0.0004319350821696501], ["'surgery use' (unit, DK, None)", 3.1013717461428724e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -9.792701473354166e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0004537308504203414], ["'packgaging materials' (kilogram, GLO, None)", 9.530829235172426e-07], ["'MUD raw materials' (unit, GLO, None)", 3.276360617559955e-07], ["'mechanical disinfection' (unit, DK, None)", 0.00025148700938845865], ["'H200 SU' (unit, GLO, None)", 0.00038904049271861466], ["'autoclave' (unit, DK, None)", 0.00012475756729941718], ["'transport' (ton kilometer, GLO, None)", 5.580684386878248e-06], ["'marginal heating grid' (megajoule, DK, None)", -1.0251088216775216e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.3506979252902666e-05], ["'eol MUD' (kilogram, GLO, None)", 1.3247770214256723e-05], ["'scalpel' (unit, GLO, None)", 8.917667619550196e-05], ["'surgery use' (unit, DK, None)", 3.1013717461428724e-05]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 4.354516105396806e-10], ["'SUD manufacturing' (unit, GLO, None)", 1.0940052710809155e-08], ["'SUD raw materials' (unit, GLO, None)", 8.929309321015938e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.53303953777055e-09], ["'marginal heating grid' (megajoule, DK, None)", -1.4478760802042353e-09], ["'transport' (ton kilometer, GLO, None)", 3.657523748164991e-11], ["'eol SUD' (kilogram, GLO, None)", 1.2626265616314096e-09], ["'surgery use' (unit, DK, None)", 1.4327077895725017e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.358493650238108e-11]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 1.6504503628295532e-09], ["'packgaging materials' (kilogram, GLO, None)", 3.249466684356598e-13], ["'MUD raw materials' (unit, GLO, None)", 5.5496883165928705e-12], ["'mechanical disinfection' (unit, DK, None)", 9.753612260778924e-10], ["'H200 SU' (unit, GLO, None)", 6.377375679149091e-11], ["'autoclave' (unit, DK, None)", 4.113660982892872e-10], ["'transport' (ton kilometer, GLO, None)", 1.4960801384333054e-11], ["'marginal heating grid' (megajoule, DK, None)", -5.99129754038389e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 6.343703500320265e-11], ["'eol MUD' (kilogram, GLO, None)", 4.3112602916447866e-11], ["'scalpel' (unit, GLO, None)", 9.210636727057058e-11], ["'surgery use' (unit, DK, None)", 1.4327077895725017e-10]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 1.477687269229655e-07], ["'SUD manufacturing' (unit, GLO, None)", 8.385986174049962e-06], ["'SUD raw materials' (unit, GLO, None)", 5.423183344659127e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.4652754117093758e-07], ["'marginal heating grid' (megajoule, DK, None)", -1.2504570426592457e-07], ["'transport' (ton kilometer, GLO, None)", 1.5194347653106734e-08], ["'eol SUD' (kilogram, GLO, None)", 5.653491242498502e-07], ["'surgery use' (unit, DK, None)", 1.754646709328267e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.388563463894589e-09]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 2.3253794978894257e-07], ["'packgaging materials' (kilogram, GLO, None)", 1.1026932579968233e-10], ["'MUD raw materials' (unit, GLO, None)", 4.291447126823519e-09], ["'mechanical disinfection' (unit, DK, None)", 1.2694775445939844e-07], ["'H200 SU' (unit, GLO, None)", 1.2992869857642666e-07], ["'autoclave' (unit, DK, None)", 5.048131908368958e-08], ["'transport' (ton kilometer, GLO, None)", 6.215123483933222e-09], ["'marginal heating grid' (megajoule, DK, None)", -5.1743794282334295e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 6.063296170242159e-09], ["'eol MUD' (kilogram, GLO, None)", 1.6892382521192e-08], ["'scalpel' (unit, GLO, None)", 9.19823558466813e-08], ["'surgery use' (unit, DK, None)", 1.754646709328267e-08]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.014957762875776017], ["'SUD manufacturing' (unit, GLO, None)", 0.05016967688746018], ["'SUD raw materials' (unit, GLO, None)", 0.02615081602738607], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.002443600140552626], ["'marginal heating grid' (megajoule, DK, None)", -0.0017319402628868461], ["'transport' (ton kilometer, GLO, None)", 0.0012339467107755396], ["'eol SUD' (kilogram, GLO, None)", 0.0012880153846745877], ["'surgery use' (unit, DK, None)", 0.0002378859951207407], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0001268963378333261]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.002630874099645759], ["'packgaging materials' (kilogram, GLO, None)", 1.1161918100865766e-05], ["'MUD raw materials' (unit, GLO, None)", 0.00012416503621688504], ["'mechanical disinfection' (unit, DK, None)", 0.0017683182074926676], ["'H200 SU' (unit, GLO, None)", 0.013733614874553246], ["'autoclave' (unit, DK, None)", 0.0004879360260116981], ["'transport' (ton kilometer, GLO, None)", 0.000504735797492111], ["'marginal heating grid' (megajoule, DK, None)", -7.166752444492407e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.00010111594895686828], ["'eol MUD' (kilogram, GLO, None)", 4.480257888747654e-05], ["'scalpel' (unit, GLO, None)", 0.0011624997065005792], ["'surgery use' (unit, DK, None)", 0.0002378859951207407]]</t>
   </si>
 </sst>
 </file>
